--- a/BackTest/2020-01-26 BackTest BSV.xlsx
+++ b/BackTest/2020-01-26 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>54.28132551999981</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>103.0173244499998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>236.3611244499998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>236.3611244499998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>369.2259244499998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>329.3547244499998</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>512.4095244499998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>355.8541244499999</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>401.2601244499999</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>353.9976244499999</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>348.8162244499999</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>348.8242244499999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>442.4507109699999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>423.2255109699998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>359.6579109699999</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>358.7532109699999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>317.0672109699999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>308.7214109699999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>268.1253109699999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>267.9596109699999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>329.6725109699999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>372.8843109699999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>371.1990109699999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>298.6671109699999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>171.4002109699999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>107.9197109699999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>393.8736109699998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>407.4909109699998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>397.4153109699998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>397.4433109699999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-130.3985890300002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-381.0713890300001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-556.4164890300001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-282.5088890300001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-282.5088890300001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-282.5088890300001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-486.2412890300001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>231.9108109699999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>261.15621097</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>445.15941097</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>423.85001097</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>440.95591097</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-440.17729924</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-570.88339924</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-560.66159924</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-415.3890992400001</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-423.26619924</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-423.26619924</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-403.9780992400001</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-403.9780992400001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-403.9780992400001</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-405.73589924</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-401.89759924</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-401.89759924</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-401.89759924</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-368.68739924</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-368.68739924</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-331.8347992400001</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-331.8347992400001</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-333.43179924</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-315.28619924</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-291.43909924</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-382.56999924</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-429.99589924</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-429.99589924</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-479.75509924</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-426.26699924</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-404.19009924</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-412.59538555</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-412.58938555</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-436.90138555</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-442.1152855500001</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-450.4503855500001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-440.8805855500001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-444.0081855500001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-444.0081855500001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-444.0081855500001</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-438.4462855500001</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-437.7962855500001</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-437.7962855500001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-437.7962855500001</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-437.7962855500001</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-454.8256855500001</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-454.8256855500001</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-454.8256855500001</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-454.8256855500001</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-454.8256855500001</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-454.8877855500001</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-458.2745855500001</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-387.55083553</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-387.55083553</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-387.55083553</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-387.55083553</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-382.65807176</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-516.33437176</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-494.33437176</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-572.5160717599999</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-568.4517717599999</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-661.55577176</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-661.86907176</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-664.9923717600001</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-685.05547176</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-664.02567176</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-672.7288717600001</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-750.55028588</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -14938,17 +14938,11 @@
         <v>-2773.598689690001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>297200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14981,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15018,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15055,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15092,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15129,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15166,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15203,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15240,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15277,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15310,13 +15268,15 @@
         <v>-2918.693074860001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>297600</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15347,9 +15307,11 @@
         <v>-2827.209174860001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>296700</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15384,9 +15346,11 @@
         <v>-2998.38487486</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>296800</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15421,9 +15385,11 @@
         <v>-2966.48437486</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>296700</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15458,9 +15424,11 @@
         <v>-2966.48437486</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>297200</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15495,9 +15463,11 @@
         <v>-2841.78617486</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>297200</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15532,9 +15502,11 @@
         <v>-2841.78617486</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>298900</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15569,9 +15541,11 @@
         <v>-2867.0457946</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>298900</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15606,9 +15580,11 @@
         <v>-2877.4225946</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>298000</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15643,9 +15619,11 @@
         <v>-2869.0580946</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>297900</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15680,9 +15658,11 @@
         <v>-2969.1538946</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>298200</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -15717,9 +15697,11 @@
         <v>-2968.5695946</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>297100</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -15754,9 +15736,11 @@
         <v>-2968.5695946</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>298500</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -15791,9 +15775,11 @@
         <v>-2968.5695946</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>298500</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -15865,9 +15851,11 @@
         <v>-2835.22094464</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>299200</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16013,9 +16001,11 @@
         <v>-2849.08664464</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>298600</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16050,9 +16040,11 @@
         <v>-2849.08664464</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>298100</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16087,9 +16079,11 @@
         <v>-2848.08664464</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>298100</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16124,7 +16118,7 @@
         <v>-2867.30834464</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>299000</v>
@@ -16163,7 +16157,7 @@
         <v>-2838.43254464</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>298600</v>
@@ -16202,7 +16196,7 @@
         <v>-2921.19634464</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>298800</v>
@@ -16241,7 +16235,7 @@
         <v>-2913.85704464</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>298100</v>
@@ -16280,9 +16274,11 @@
         <v>-2955.29324464</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>299100</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16317,9 +16313,11 @@
         <v>-2997.49324464</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>299000</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16354,7 +16352,7 @@
         <v>-3274.86894464</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>298200</v>
@@ -16393,11 +16391,9 @@
         <v>-3341.61384464</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>297900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16432,11 +16428,9 @@
         <v>-3524.56944464</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>297000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16471,7 +16465,7 @@
         <v>-3371.39864464</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>296500</v>
@@ -16510,7 +16504,7 @@
         <v>-3391.86941391</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>296800</v>
@@ -16549,7 +16543,7 @@
         <v>-3368.25211391</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>295900</v>
@@ -16588,7 +16582,7 @@
         <v>-3368.20651391</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>296100</v>
@@ -16627,7 +16621,7 @@
         <v>-3371.71349943</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>298300</v>
@@ -16666,7 +16660,7 @@
         <v>-3390.216299430001</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>297500</v>
@@ -16705,7 +16699,7 @@
         <v>-3290.145799430001</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>296800</v>
@@ -16744,7 +16738,7 @@
         <v>-3387.251399430001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>297700</v>
@@ -16783,7 +16777,7 @@
         <v>-3315.688199430001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>296600</v>
@@ -16822,7 +16816,7 @@
         <v>-3405.40439943</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>297000</v>
@@ -16861,7 +16855,7 @@
         <v>-3553.74559943</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>296700</v>
@@ -16900,7 +16894,7 @@
         <v>-3552.42319943</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>296600</v>
@@ -16939,7 +16933,7 @@
         <v>-3554.430499430001</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>298300</v>
@@ -16978,7 +16972,7 @@
         <v>-3543.335199430001</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>298200</v>
@@ -17017,7 +17011,7 @@
         <v>-3543.28519943</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>298300</v>
@@ -17056,7 +17050,7 @@
         <v>-3491.873399430001</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>298500</v>
@@ -17095,7 +17089,7 @@
         <v>-3459.716999430001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>298700</v>
@@ -17134,7 +17128,7 @@
         <v>-3459.716999430001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>299100</v>
@@ -17173,7 +17167,7 @@
         <v>-3455.985399430001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>299100</v>
@@ -17212,7 +17206,7 @@
         <v>-3445.050399430001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>299200</v>
@@ -17251,7 +17245,7 @@
         <v>-3391.371599430001</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>299500</v>
@@ -17290,7 +17284,7 @@
         <v>-3333.12039943</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>299700</v>
@@ -17329,7 +17323,7 @@
         <v>-3333.12039943</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>300100</v>
@@ -17368,7 +17362,7 @@
         <v>-3270.62989943</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>300100</v>
@@ -17407,11 +17401,9 @@
         <v>-3406.89579943</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>300300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17446,7 +17438,7 @@
         <v>-3406.89579943</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>300100</v>
@@ -17522,11 +17514,9 @@
         <v>-3547.70909943</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>298800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17561,11 +17551,9 @@
         <v>-3545.85012745</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>298800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17637,11 +17625,9 @@
         <v>-3497.17952745</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17861,9 +17847,11 @@
         <v>-3583.07032745</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>299600</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17898,11 +17886,9 @@
         <v>-3583.07032745</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>299200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17937,11 +17923,9 @@
         <v>-3581.40310505</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>299200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17976,11 +17960,9 @@
         <v>-3583.40310505</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>299900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18015,11 +17997,9 @@
         <v>-3582.11360505</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>299800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18054,11 +18034,9 @@
         <v>-3553.57170505</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18204,11 +18182,9 @@
         <v>-3522.750505049999</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>301000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18613,11 +18589,9 @@
         <v>-3478.06140039</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>299700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18652,11 +18626,9 @@
         <v>-3553.60320039</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18691,11 +18663,9 @@
         <v>-3538.15700039</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>298900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18730,11 +18700,9 @@
         <v>-3498.49630039</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>299800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18769,11 +18737,9 @@
         <v>-3539.41350039</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>302700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18808,11 +18774,9 @@
         <v>-3505.36740039</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>302200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18847,11 +18811,9 @@
         <v>-3536.42790039</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>302900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -20736,9 +20698,11 @@
         <v>-4617.519294099999</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>298400</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20773,11 +20737,9 @@
         <v>-4617.519294099999</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>298500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20812,7 +20774,7 @@
         <v>-4619.388294099998</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I597" t="n">
         <v>298500</v>
@@ -20851,7 +20813,7 @@
         <v>-4647.420894099998</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>298400</v>
@@ -20890,7 +20852,7 @@
         <v>-4535.803292429998</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>298200</v>
@@ -20929,11 +20891,9 @@
         <v>-4535.803292429998</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>298500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20968,7 +20928,7 @@
         <v>-4529.046792429997</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>298500</v>
@@ -22524,11 +22484,9 @@
         <v>-4627.043692689997</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>301300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22563,11 +22521,9 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>301200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22639,11 +22595,9 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>300300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22678,11 +22632,9 @@
         <v>-4636.043692689997</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>300300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22717,11 +22669,9 @@
         <v>-4643.596792689997</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>301100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22756,11 +22706,9 @@
         <v>-4643.496792689996</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>300300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22980,11 +22928,9 @@
         <v>-4798.156894289997</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -23093,11 +23039,9 @@
         <v>-4810.938494289997</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23169,11 +23113,9 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>299600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23208,11 +23150,9 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>301000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23284,11 +23224,9 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>299600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23323,11 +23261,9 @@
         <v>-4792.018593299997</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>299600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23584,11 +23520,9 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>300100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -23623,11 +23557,9 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>300100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23662,11 +23594,9 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23738,11 +23668,9 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>300100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24443,11 +24371,9 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>302800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -28182,11 +28108,9 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="n">
-        <v>300900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -28369,11 +28293,9 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
-      </c>
-      <c r="I800" t="n">
-        <v>301400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -28445,11 +28367,9 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
-      </c>
-      <c r="I802" t="n">
-        <v>301000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -28484,11 +28404,9 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
-      </c>
-      <c r="I803" t="n">
-        <v>300900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -29485,7 +29403,7 @@
         <v>-2868.875097289993</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29522,7 +29440,7 @@
         <v>-3032.900397289993</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29559,7 +29477,7 @@
         <v>-3032.900397289993</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29596,7 +29514,7 @@
         <v>-3085.513897289993</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29633,7 +29551,7 @@
         <v>-3269.399497289993</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30225,7 +30143,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30262,7 +30180,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -41636,6 +41554,6 @@
       <c r="M1158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BSV.xlsx
+++ b/BackTest/2020-01-26 BackTest BSV.xlsx
@@ -451,7 +451,7 @@
         <v>-159.5037747400002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-127.0407744800002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-138.2809744800002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-45.4676744800002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>120.1347255199998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-187.0256744800002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14.89312551999981</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>236.3611244499998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>236.3611244499998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>369.2259244499998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>329.3547244499998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>512.4095244499998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>355.8541244499999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>401.2601244499999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>353.9976244499999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>348.8162244499999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>348.8242244499999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>442.4507109699999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>423.2255109699998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>359.6579109699999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>358.7532109699999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>317.0672109699999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>308.7214109699999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>231.8756109699999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>268.1253109699999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>267.9596109699999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>329.6725109699999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>372.8843109699999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>371.1990109699999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>298.6671109699999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>171.4002109699999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>107.9197109699999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>393.8736109699998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>396.4784109699999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>138.1848109699998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>168.1446109699998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -21274,11 +21274,17 @@
         <v>-4623.129092689997</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>300800</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21313,17 @@
         <v>-4618.221492689998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>300600</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21356,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +21393,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21430,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21467,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +21504,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21537,17 @@
         <v>-4684.193192689997</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>300800</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +21576,17 @@
         <v>-4692.025292689997</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>300600</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21615,17 @@
         <v>-4621.535992689996</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>300500</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21654,17 @@
         <v>-4627.043692689997</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>301300</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +21693,17 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>301200</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +21732,17 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>300300</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +21771,17 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>300300</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +21810,17 @@
         <v>-4636.043692689997</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>300300</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +21849,17 @@
         <v>-4643.596792689997</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>301100</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +21888,17 @@
         <v>-4643.496792689996</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>300300</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +21927,17 @@
         <v>-4648.363792689996</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>300900</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +21966,17 @@
         <v>-4648.363792689996</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>300300</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +22005,17 @@
         <v>-4648.250694289996</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>300300</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22044,17 @@
         <v>-4648.265694289997</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>300800</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22083,17 @@
         <v>-4798.162894289997</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>300200</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22122,17 @@
         <v>-4798.156894289997</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>300000</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22161,17 @@
         <v>-4809.017094289997</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>301200</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22200,17 @@
         <v>-4809.017094289997</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>300000</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +22239,17 @@
         <v>-4810.938494289997</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>300000</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +22278,17 @@
         <v>-4836.116794289997</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>299700</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +22317,17 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>299600</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +22356,17 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>301000</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +22395,17 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>301000</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +22434,17 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>299600</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22473,17 @@
         <v>-4792.018593299997</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>299600</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22512,17 @@
         <v>-4847.478293299997</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>300800</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +22551,17 @@
         <v>-4846.680993299997</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>300700</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +22590,17 @@
         <v>-4852.195893299997</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>300900</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +22629,17 @@
         <v>-4855.195893299997</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>300800</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +22668,17 @@
         <v>-4855.195893299997</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>300000</v>
+      </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +22707,17 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>300000</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +22746,17 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>300100</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +22785,17 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>300100</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22594,11 +22824,17 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>300000</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22627,11 +22863,17 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>300000</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +22902,17 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>300100</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22693,11 +22941,17 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>300100</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22980,17 @@
         <v>-4848.338193299996</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>300100</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,11 +23019,17 @@
         <v>-4848.338193299996</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>300900</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +23058,17 @@
         <v>-4825.854794629997</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>300900</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22825,11 +23097,17 @@
         <v>-4825.854794629997</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>301000</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +23136,17 @@
         <v>-4815.854794629997</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>301000</v>
+      </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +23175,17 @@
         <v>-4791.707294629997</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>301400</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23214,17 @@
         <v>-4723.749194629997</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>301800</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,11 +23253,17 @@
         <v>-4695.491394629997</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>302000</v>
+      </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +23292,17 @@
         <v>-4668.630194629996</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>302500</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +23331,17 @@
         <v>-4622.058129619996</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>302900</v>
+      </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23370,17 @@
         <v>-4783.208564609996</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>303000</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23409,17 @@
         <v>-4757.565564609996</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>302400</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +23448,17 @@
         <v>-4758.692364609996</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>302800</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23487,17 @@
         <v>-4780.683864609996</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>302100</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +23526,17 @@
         <v>-4776.536264609996</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>301800</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23565,17 @@
         <v>-4776.536264609996</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>302000</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23604,17 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>302000</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23643,17 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>302800</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23682,17 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>302800</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +23721,17 @@
         <v>-4773.932364609996</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>302800</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23760,17 @@
         <v>-4723.755664609996</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>302100</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23799,17 @@
         <v>-4734.785664609995</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>302900</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23838,17 @@
         <v>-4734.781664609995</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>301900</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23877,17 @@
         <v>-4735.837664609995</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>302800</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23916,17 @@
         <v>-4761.580264609995</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>302700</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23955,17 @@
         <v>-4760.344865009994</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>302600</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23994,17 @@
         <v>-4760.344865009994</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>302800</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +24033,17 @@
         <v>-4561.138564609994</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>302800</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +24072,17 @@
         <v>-4467.635287229994</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>303500</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23683,11 +24111,17 @@
         <v>-4467.635287229994</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>305000</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23716,11 +24150,17 @@
         <v>-4415.943686219994</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>305000</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +24189,17 @@
         <v>-4225.729187229994</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>305100</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +24232,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23815,11 +24265,17 @@
         <v>-4236.772987229994</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>304300</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +24308,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +24345,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +24382,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24419,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24456,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24493,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24530,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24567,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24604,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24641,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24678,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24715,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24752,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24789,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24826,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24863,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24900,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24937,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24974,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +25011,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +25048,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +25085,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +25122,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +25159,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +25196,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +25233,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +25270,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +25307,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24776,7 +25344,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24809,7 +25381,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24842,7 +25418,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24875,7 +25455,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24908,7 +25492,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24941,7 +25529,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24974,7 +25566,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +25603,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25040,7 +25640,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25073,7 +25677,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25106,7 +25714,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25139,7 +25751,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25172,7 +25788,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25205,7 +25825,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25862,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25271,7 +25899,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25304,7 +25936,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25337,7 +25973,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25370,7 +26010,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25403,7 +26047,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25436,7 +26084,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25469,7 +26121,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25502,7 +26158,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25535,7 +26195,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25568,7 +26232,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25601,7 +26269,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25634,7 +26306,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25667,7 +26343,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25700,7 +26380,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25733,7 +26417,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25766,7 +26454,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25799,7 +26491,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25832,7 +26528,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25865,7 +26565,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25898,7 +26602,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25931,7 +26639,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +26676,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26713,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26750,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26787,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26824,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26861,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26898,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26935,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26972,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +27009,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +27046,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +27083,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +27120,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +27157,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +27194,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +27231,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +27268,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +27305,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +27338,17 @@
         <v>-4706.501914759996</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>300600</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +27377,17 @@
         <v>-4706.501914759996</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>300900</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +27416,17 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>300900</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +27455,17 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>301000</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +27494,17 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>301000</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +27533,17 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>301400</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +27572,17 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>301400</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +27611,17 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>301400</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +27650,17 @@
         <v>-4741.695689399995</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>301400</v>
+      </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +27689,17 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>301000</v>
+      </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +27728,17 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>300900</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +27767,17 @@
         <v>-4762.750389399995</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>300900</v>
+      </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +27806,17 @@
         <v>-4762.750389399995</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>301000</v>
+      </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +27845,17 @@
         <v>-4572.291589399994</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>301000</v>
+      </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27888,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27925,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27962,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27999,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +28036,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +28073,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +28110,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +28147,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +28184,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +28221,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +28258,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +28295,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +28332,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +28369,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +28406,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +28443,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +28480,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +28517,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +28554,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +28591,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +28628,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +28665,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +28702,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +28735,15 @@
         <v>-2868.875097289993</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27808,11 +28772,15 @@
         <v>-3032.900397289993</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28813,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28850,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28887,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28924,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28961,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28998,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +29035,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +29072,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +29109,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +29146,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +29183,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +29220,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +29257,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +29294,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +29331,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +29368,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +29405,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +29442,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +29475,15 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28468,11 +29512,15 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +29549,15 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +29586,15 @@
         <v>-3485.702430499993</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +29623,15 @@
         <v>-3423.593130499993</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +29660,15 @@
         <v>-3468.860496069993</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +29697,15 @@
         <v>-3468.860496069993</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +29734,15 @@
         <v>-3425.229996069993</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +29771,15 @@
         <v>-3325.468461639993</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +29808,15 @@
         <v>-2985.618661639993</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29845,15 @@
         <v>-3089.701661639993</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +29886,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +29923,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +29960,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +29997,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +30034,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +30071,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +30108,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +30145,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +30182,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +30219,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +30256,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +30293,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +30330,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +30367,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +30404,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +30441,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +30478,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +30515,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +30552,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +30589,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +30626,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +30663,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +30700,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +30737,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +30774,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +30811,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +30848,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +30885,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +30922,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +30959,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30996,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +31033,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +31070,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +31107,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +31144,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +31181,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +31218,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +31255,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +31292,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +31329,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +31366,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +31403,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +31440,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +31477,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +31514,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +31551,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +31588,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +31625,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +31662,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +31699,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +31736,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +31773,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +31810,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +31847,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +31884,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +31921,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +31958,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +31995,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +32032,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +32069,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +32106,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +32143,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +32180,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +32217,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +32254,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +32291,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +32328,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +32365,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +32402,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +32439,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +32476,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +32513,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +32550,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +32587,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +32624,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +32661,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +32698,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +32735,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +32772,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +32809,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31442,7 +32846,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31475,7 +32883,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31508,7 +32920,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31541,7 +32957,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31574,7 +32994,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31607,7 +33031,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31640,7 +33068,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31673,7 +33105,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31706,7 +33142,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31739,7 +33179,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31772,7 +33216,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31805,7 +33253,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31838,7 +33290,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31871,7 +33327,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31904,7 +33364,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31937,7 +33401,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31970,7 +33438,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32003,7 +33475,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32036,7 +33512,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32069,7 +33549,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32102,7 +33586,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32135,7 +33623,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32168,7 +33660,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32201,7 +33697,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32234,7 +33734,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32267,7 +33771,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32300,7 +33808,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32333,7 +33845,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32366,7 +33882,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32399,7 +33919,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32432,7 +33956,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32465,7 +33993,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32498,7 +34030,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32531,7 +34067,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32564,7 +34104,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32597,7 +34141,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32630,7 +34178,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32663,7 +34215,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32696,7 +34252,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32729,7 +34289,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32762,7 +34326,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32795,7 +34363,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32828,7 +34400,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32861,7 +34437,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32894,7 +34474,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32927,7 +34511,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32960,7 +34548,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32993,7 +34585,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33026,7 +34622,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33059,7 +34659,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33092,7 +34696,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33125,7 +34733,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33158,7 +34770,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33191,7 +34807,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +34844,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +34881,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33290,7 +34918,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +34955,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33356,7 +34992,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +35029,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33422,7 +35066,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33455,7 +35103,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33488,7 +35140,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33521,7 +35177,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33554,7 +35214,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +35251,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +35288,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +35325,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +35362,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +35399,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33752,7 +35436,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +35473,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +35510,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +35547,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +35584,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +35621,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +35658,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +35695,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +35732,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +35769,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +35806,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +35843,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +35880,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +35917,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +35954,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +35991,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +36028,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34313,7 +36065,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34346,7 +36102,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34379,7 +36139,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34412,7 +36176,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34445,7 +36213,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34478,7 +36250,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34511,7 +36287,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34544,7 +36324,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34577,7 +36361,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34610,7 +36398,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34639,11 +36431,17 @@
         <v>-5159.61854496999</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>304000</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34676,7 +36474,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34709,7 +36511,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34742,7 +36548,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34775,7 +36585,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34808,7 +36622,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34841,7 +36659,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34874,7 +36696,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34907,7 +36733,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34940,7 +36770,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34973,7 +36807,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35006,7 +36844,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35039,7 +36881,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35072,7 +36918,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35105,7 +36955,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35138,7 +36992,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35171,7 +37029,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35204,7 +37066,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35237,7 +37103,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35270,7 +37140,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35303,7 +37177,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35332,11 +37210,17 @@
         <v>-5184.387344969989</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>302900</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35365,11 +37249,17 @@
         <v>-5183.733044969989</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>302900</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35402,7 +37292,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35435,7 +37329,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35464,11 +37362,17 @@
         <v>-5253.20184496999</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>302500</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35505,7 +37409,7 @@
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1064" t="n">
@@ -35536,11 +37440,9 @@
         <v>-5426.65821033999</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>301500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35653,11 +37555,9 @@
         <v>-5401.998887289989</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>303600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35692,11 +37592,9 @@
         <v>-5401.998887289989</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>303800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35731,11 +37629,9 @@
         <v>-5420.102587289989</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>303800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36119,11 +38015,9 @@
         <v>-5191.586740469988</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>300500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
@@ -36158,11 +38052,9 @@
         <v>-5188.466340469989</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>301700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
